--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Antipodean Albatross_Auckland Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Antipodean Albatross_Auckland Islands.xlsx
@@ -10618,13 +10618,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D2766BA-83F8-49AD-8269-45286097D210}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1567BA6-CF02-44B6-88EC-6FA0E09D22EE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D517C7-F662-495E-9C97-A3D29193666F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8A78398-7C01-4A02-A282-7963990C4C6B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A77B2AC0-EA77-4EAC-BE2E-4758EB2CFFD0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3706FD3D-1002-496B-9E8D-D3863D27DE13}"/>
 </file>